--- a/SaleData.xlsx
+++ b/SaleData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Desktop\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC8532-C7CC-4769-BF76-D8C7E5385C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BE13F5-E668-4D1B-BBA1-268359C46329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="37">
   <si>
     <t>Region</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ghgh</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1893,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,6 +2128,9 @@
       <c r="I6">
         <f t="shared" si="1"/>
         <v>171.14285714285714</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
       </c>
       <c r="N6">
         <f>SUMIF(E:E,E2,H:H)</f>
